--- a/biology/Zoologie/Chlamys_textoria/Chlamys_textoria.xlsx
+++ b/biology/Zoologie/Chlamys_textoria/Chlamys_textoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlamys (Chlamys) textoria, Chlamys textorius, Pectinites textorius
 Chlamys textoria est une espèce fossile de Mollusques Bivalves du Jurassique (Bajocien).
@@ -512,11 +524,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chlamys textoria a été décrite pour la première fois en 1820 par le paléontologue allemand Ernst Friedrich von Schlotheim (1764-1832) sous le protonyme Pectinites textorius[1].
-Opinions
-L'appartenance de l'espèce Chlamys textoria au genre Chlamys a été accordée/confirmée par « l'opinion » de S. E. Damborenea en 2002[2],[3], ainsi que par M. Aberhan en 1998[4] et I. Lazar en 2005[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chlamys textoria a été décrite pour la première fois en 1820 par le paléontologue allemand Ernst Friedrich von Schlotheim (1764-1832) sous le protonyme Pectinites textorius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chlamys_textoria</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlamys_textoria</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Opinions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appartenance de l'espèce Chlamys textoria au genre Chlamys a été accordée/confirmée par « l'opinion » de S. E. Damborenea en 2002 ainsi que par M. Aberhan en 1998 et I. Lazar en 2005.
 </t>
         </is>
       </c>
